--- a/medicine/Enfance/Karen_van_Holst_Pellekaan/Karen_van_Holst_Pellekaan.xlsx
+++ b/medicine/Enfance/Karen_van_Holst_Pellekaan/Karen_van_Holst_Pellekaan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karen van Holst Pellekaan, née le 10 juillet 1955 à Le Helder, est une actrice, scénariste et écrivaine néerlandaise.
 </t>
@@ -513,19 +525,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Téléfilms
-1992 : The Pocket-knife de Ben Sombogaart : Baliedame[1]
-2002 : Loonies de Bobby Eerhart[2]
-2010 : The Happy Housewife de Antoinette Beumer[3]
-2012 : Eighth Graders Don't Cry de Dennis Bots[4]
-2012 : Jackie de Antoinette Beumer[5]
-2014 : Loenatik te gek! de Johan Timmers[6]
-2014 : Kenau de Maarten Treurniet[7]
-2014 : Secrets of War de Dennis Bots[8]
-2015 : The Surprise de Mike van Diem[9]
-2015 : Kidnap - Bo's Most Exciting Holiday Ever de Diederik Ebbinge[10]
+          <t>Téléfilms</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1992 : The Pocket-knife de Ben Sombogaart : Baliedame
+2002 : Loonies de Bobby Eerhart
+2010 : The Happy Housewife de Antoinette Beumer
+2012 : Eighth Graders Don't Cry de Dennis Bots
+2012 : Jackie de Antoinette Beumer
+2014 : Loenatik te gek! de Johan Timmers
+2014 : Kenau de Maarten Treurniet
+2014 : Secrets of War de Dennis Bots
+2015 : The Surprise de Mike van Diem
+2015 : Kidnap - Bo's Most Exciting Holiday Ever de Diederik Ebbinge
 2015 : Isabelle et le Secret de d'Artagnan de  Dennis Bots
-2017 : Storm de Dennis Bots[11]</t>
+2017 : Storm de Dennis Bots</t>
         </is>
       </c>
     </row>
@@ -553,24 +570,26 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1998 : Koala colère
-2000 : Coco the Koala[12]
+2000 : Coco the Koala
 2000 : Coco's Surprise
-2000 : Coco Makes Music[13]
-2004 : Luuk[14]
-2005 : Scharreltje[15]
-2007 : Hugo: mein Ferkel und ich[16]
-2008 : Kidnep[17]
-2009 : Het geheim van de wegloopkinderen[18]
-2009 : Binkie en Oma Drie: lentefriebels[19]
-2010 : Leef je nog?[20]
-2011 : Binkie's beestenbende[21]
-2011 : bliksem in de bergen[22]
-2012 : Oog in oog[23]
-2012 : In de val[24]
-2016 : Storm: letters van vuur[25]</t>
+2000 : Coco Makes Music
+2004 : Luuk
+2005 : Scharreltje
+2007 : Hugo: mein Ferkel und ich
+2008 : Kidnep
+2009 : Het geheim van de wegloopkinderen
+2009 : Binkie en Oma Drie: lentefriebels
+2010 : Leef je nog?
+2011 : Binkie's beestenbende
+2011 : bliksem in de bergen
+2012 : Oog in oog
+2012 : In de val
+2016 : Storm: letters van vuur</t>
         </is>
       </c>
     </row>
